--- a/Texts/Город Сокровищ/Предместья/Пляж.xlsx
+++ b/Texts/Город Сокровищ/Предместья/Пляж.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>Раздел</t>
   </si>
@@ -267,9 +267,6 @@
     <t>[CN]Соберите свою группу с учётом\n[CN]необходимого для задания Покемона, либо\n[CN]Отложите задание.</t>
   </si>
   <si>
-    <t>\nВнимание!</t>
-  </si>
-  <si>
     <t>[CN]Это спасение не может быть выполнено,\n[CN]поскольку в группе есть определённый Покемон.</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
   </si>
   <si>
     <t>[CN]Òïáåñéóå òâïý ãñôððô ò ôœæóïí\n[CN]îåïáöïäéíïãï äìÿ èàäàîéÿ Ðïëåíïîà, ìéáï\n[CN]Ïóìïçéóå èàäàîéå.</t>
-  </si>
-  <si>
-    <t>\nÂîéíàîéå!</t>
   </si>
   <si>
     <t>[CN]Üóï òðàòåîéå îå íïçåó áúóû âúðïìîåîï,\n[CN]ðïòëïìûëô â ãñôððå åòóû ïðñåäåìæîîúê Ðïëåíïî.</t>
@@ -779,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1007,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1028,7 +1022,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1043,7 +1037,7 @@
         <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1058,7 +1052,7 @@
         <v>66</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1073,7 +1067,7 @@
         <v>67</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1088,7 +1082,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1103,7 +1097,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1118,7 +1112,7 @@
         <v>70</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1133,7 +1127,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1148,7 +1142,7 @@
         <v>72</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1163,7 +1157,7 @@
         <v>73</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1178,7 +1172,7 @@
         <v>74</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1193,7 +1187,7 @@
         <v>75</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1208,7 +1202,7 @@
         <v>76</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1223,7 +1217,7 @@
         <v>77</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1238,7 +1232,7 @@
         <v>78</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1268,7 +1262,7 @@
         <v>79</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1283,7 +1277,7 @@
         <v>80</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1298,7 +1292,7 @@
         <v>81</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1310,10 +1304,10 @@
         <v>60</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1325,10 +1319,10 @@
         <v>61</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1343,7 +1337,7 @@
         <v>81</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
